--- a/72 Estrategias Pedagógicas para el fomento a la CTI.xlsx
+++ b/72 Estrategias Pedagógicas para el fomento a la CTI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Estrategias Pedagógicas para el fomento a la CTI</t>
   </si>
@@ -25,13 +25,7 @@
     <t>Agua y Saneamiento</t>
   </si>
   <si>
-    <t>Grupo de Procesamiento Digital de Señales y Procesadores - GDSPROC</t>
-  </si>
-  <si>
     <t>6.- Semillero de Investigación en Gestión Integrada de Recursos Hídricos: desde Enero 2014 hasta Descripción: El Semillero de Investigación en Gestión Integral de Recursos Hídricos tiene como objetivo crear consciencia crítica e investigativa en los integrantes del semillero en cuanto a la gestión integral del recurso hídrico. Tiene como misión generar en sus integrantes, criterios críticos e investigativos enmarcados dentro del desarrollo de procesos de investigación en los componentes de la GIRH, que incluyen el desarrollo y aplicación de instrumentos (técnicos, administrativos, económicos y sociales), el monitoreo y la generación de información que permita conocer el recurso y la exploración de tecnologías aplicables a nuestra situación social y económica para solucionar los problemas de abastecimiento y tratamiento de aguas de diferente tipo involucrando procesos de apropiación y participación comunitaria. Las líneas de investigación son: (1) Gestión de Abastecimiento de Agua y Saneamiento, (2)Gestión de Calidad y Cantidad de Recursos Hídricos y (3) Gestión de Tecnologías y Ecotecnologías para el Tratamiento de Aguas Residuales. El Semillero en Gestión Integral del Recurso Hídrico será un grupo líder en la temática GIRH dentro de la Facultad de Ciencias Ambientales y en la Universidad Tecnológica de Pereira, además se promoverá la capacidad investigativa a través de la cual se generará conocimiento y se impulsará continuamente la formulación de proyectos y desarrollo de los mismos.</t>
-  </si>
-  <si>
-    <t>6.- Semillero de Investigación. Proyecto: Diseño de sistema de monitoreo de la calidad del agua: desde Agosto 2013 hasta Junio 2014 Descripción: El presente trabajo de semillero propone solución a una de las problemáticas para el monitoreo de uno de los entes más contaminantes en el departamento del Quindío, como es el procesamiento de las pieles de ganado conocido como curtiembres en el rio Quindío, específicamente en el Km 1 entre Armenia y Calarcá conocido como La María. Esta investigación está enfocada a la determinación y caracterización de las variables de mayor importancia para clasificar los factores contaminantes del Río, con el fin de diseñar una arquitectura electrónica embebida para el monitoreo de dichas variables.</t>
   </si>
 </sst>
 </file>
@@ -389,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,15 +402,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
